--- a/kak-zakazat/price.xlsx
+++ b/kak-zakazat/price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>Бланк-заказ</t>
   </si>
@@ -81,6 +81,102 @@
     <t>Сумма</t>
   </si>
   <si>
+    <t>Сувенирная продукция к Новому 2021 Году</t>
+  </si>
+  <si>
+    <t>Полотенце вафельное кух.купон min 10шт/уп НГ</t>
+  </si>
+  <si>
+    <t>хлопок</t>
+  </si>
+  <si>
+    <t>45*60</t>
+  </si>
+  <si>
+    <t>Полотенце вафельное кух. набивн. min 10шт/уп НГ</t>
+  </si>
+  <si>
+    <t>38*75</t>
+  </si>
+  <si>
+    <t>Полотенце вафельное кух. круг min 10шт/уп НГ</t>
+  </si>
+  <si>
+    <t>D-68</t>
+  </si>
+  <si>
+    <t>Полотенце рогожка 45/60 купон min 10шт/уп НГ</t>
+  </si>
+  <si>
+    <t>Полотенце рогожка  НГ</t>
+  </si>
+  <si>
+    <t>37*75</t>
+  </si>
+  <si>
+    <t>Полотенце банное НГ</t>
+  </si>
+  <si>
+    <t>Набор кухонный (полотенце, 2 прихватки) НГ</t>
+  </si>
+  <si>
+    <t>Набор кухонный (полотенце, варежка, прихват)НГ</t>
+  </si>
+  <si>
+    <t>Набор кухонный (фартук, прихватка, рукавица)НГ</t>
+  </si>
+  <si>
+    <t>Набор кухонный (фартук, прихватка, полотенце)НГ</t>
+  </si>
+  <si>
+    <t>Набор кухонный 3пр(фартук+2прихватки) рогожка НГ</t>
+  </si>
+  <si>
+    <t>Набор кухонный 4 предмета рогожка НГ</t>
+  </si>
+  <si>
+    <t>Набор вафельный( 3 полотенца) НГ</t>
+  </si>
+  <si>
+    <t>Набор рогожка( 3 полотенца) НГ</t>
+  </si>
+  <si>
+    <t>Фартук рогожка без кармана Коровки, Лиса</t>
+  </si>
+  <si>
+    <t>Прихватка; упаковка 20 шт НГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прихватка; упаковка 10 шт ( ватин) Коровки </t>
+  </si>
+  <si>
+    <t>Прихватка; упаковка 10 шт ( ватин) НГ</t>
+  </si>
+  <si>
+    <t>Грелка на чайник « Коровки» рогожка</t>
+  </si>
+  <si>
+    <t>Дорожка 50/150 НГ</t>
+  </si>
+  <si>
+    <t>Скатерть сувенирная, рогожка серая 1,2 НГ</t>
+  </si>
+  <si>
+    <t>Скатерть сувенирная, рогожка серая 1,5</t>
+  </si>
+  <si>
+    <t>Скатерть сувенирная, рогожка серая 1,8</t>
+  </si>
+  <si>
+    <t>Скатерть сувенирная, рогожка серая 2,2</t>
+  </si>
+  <si>
+    <t>Набор столовый (скатерть, 6 салфеток) рогожка;1,8НГ</t>
+  </si>
+  <si>
+    <t>Набор столовый (скатерть, 12 салфеток) рогожка  ;2,5НГ</t>
+  </si>
+  <si>
     <t>Халаты,платья,сарафаны из х\б тканей женские</t>
   </si>
   <si>
@@ -144,9 +240,6 @@
     <t>трикотаж</t>
   </si>
   <si>
-    <t>Костюм « Домашний»</t>
-  </si>
-  <si>
     <t>Бриджи женские (черные, меланж, тем.синие)</t>
   </si>
   <si>
@@ -171,9 +264,6 @@
     <t>46 -64</t>
   </si>
   <si>
-    <t>Сорочка женская « Анжелика»,ситец Шуя</t>
-  </si>
-  <si>
     <t>Трусы мужские, бязь. Упаковка 10шт на размер</t>
   </si>
   <si>
@@ -187,6 +277,30 @@
   </si>
   <si>
     <t>50-60</t>
+  </si>
+  <si>
+    <t>Рабочая одежда</t>
+  </si>
+  <si>
+    <t>Фартук нейлоновый двухсторонний</t>
+  </si>
+  <si>
+    <t>нейлон</t>
+  </si>
+  <si>
+    <t>44-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фартук габардиновый </t>
+  </si>
+  <si>
+    <t>габардин</t>
+  </si>
+  <si>
+    <t>Халат габардиновый без рукава</t>
+  </si>
+  <si>
+    <t>Халат габардин с коротким рукавом</t>
   </si>
   <si>
     <r>
@@ -222,36 +336,33 @@
     <t>вафелька</t>
   </si>
   <si>
-    <t>45*60</t>
-  </si>
-  <si>
     <t>Полотенце вафельное кух. набивн. min 10шт/уп</t>
   </si>
   <si>
+    <t>Полотенце вафельное купон min 10шт/уп (35/60)</t>
+  </si>
+  <si>
+    <t>35*60</t>
+  </si>
+  <si>
+    <t>Полотенце вафельное кух. круг min 10шт/уп</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D-68</t>
+  </si>
+  <si>
+    <t>Полотенце вафельное клетка min 10шт/уп</t>
+  </si>
+  <si>
+    <t>40*80</t>
+  </si>
+  <si>
+    <t>Полотенце вафельное белое</t>
+  </si>
+  <si>
     <t>40*75</t>
   </si>
   <si>
-    <t>Полотенце вафельное купон min 10шт/уп (35/60)</t>
-  </si>
-  <si>
-    <t>35*60</t>
-  </si>
-  <si>
-    <t>Полотенце вафельное кух. круг min 10шт/уп</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D-68</t>
-  </si>
-  <si>
-    <t>Полотенце вафельное клетка min 10шт/уп</t>
-  </si>
-  <si>
-    <t>40*80</t>
-  </si>
-  <si>
-    <t>Полотенце вафельное белое</t>
-  </si>
-  <si>
     <t>Полотенце вафельное белое Гост</t>
   </si>
   <si>
@@ -264,9 +375,6 @@
     <t>Полотенце рогожка  ( серая) min 10шт/уп</t>
   </si>
   <si>
-    <t>38*75</t>
-  </si>
-  <si>
     <t>Полотенце вафельное "Матрешка"</t>
   </si>
   <si>
@@ -330,6 +438,9 @@
     <t>Платок головной min 10шт/уп Шуя</t>
   </si>
   <si>
+    <t>Косынка Шуя min 10шт/уп  цветная</t>
+  </si>
+  <si>
     <t xml:space="preserve">Косынка Шуя min 10шт/уп </t>
   </si>
   <si>
@@ -417,21 +528,12 @@
     <t>120*150</t>
   </si>
   <si>
-    <t>Скатерть сувенирная, рогожка серая 1,5</t>
-  </si>
-  <si>
     <t>150*150</t>
   </si>
   <si>
-    <t>Скатерть сувенирная, рогожка серая 1,8</t>
-  </si>
-  <si>
     <t>150*180</t>
   </si>
   <si>
-    <t>Скатерть сувенирная, рогожка серая 2,2</t>
-  </si>
-  <si>
     <t>150*220</t>
   </si>
   <si>
@@ -466,6 +568,12 @@
   </si>
   <si>
     <t>50*150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салфетки « Прованс» кружево </t>
+  </si>
+  <si>
+    <t>Салфетки рогожка уп 10 шт</t>
   </si>
   <si>
     <t>Грелка на чайник « Сова»</t>
@@ -869,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1057,6 +1165,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -1204,7 +1327,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1265,33 +1388,39 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1301,6 +1430,9 @@
     <xf numFmtId="1" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1337,13 +1469,13 @@
     <xf numFmtId="61" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1355,13 +1487,13 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1379,21 +1511,18 @@
     <xf numFmtId="1" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1407,6 +1536,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2548,7 +2680,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2562,7 +2694,8 @@
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="256" width="17.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="256" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -2576,6 +2709,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="s" s="6">
@@ -2588,6 +2722,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="10"/>
@@ -2600,6 +2735,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -2612,6 +2748,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" t="s" s="13">
@@ -2624,6 +2761,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="s" s="17">
@@ -2650,6 +2788,7 @@
       <c r="H6" t="s" s="18">
         <v>12</v>
       </c>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" t="s" s="19">
@@ -2662,6 +2801,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="23">
@@ -2677,14 +2817,15 @@
         <v>16</v>
       </c>
       <c r="E8" s="26">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="22">
         <f>G8*E8</f>
         <v>0</v>
       </c>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="23">
@@ -2697,132 +2838,134 @@
         <v>15</v>
       </c>
       <c r="D9" t="s" s="25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="26">
-        <v>218</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="22">
         <f>G9*E9</f>
         <v>0</v>
       </c>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="23">
         <v>3</v>
       </c>
       <c r="B10" t="s" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="25">
         <v>15</v>
       </c>
       <c r="D10" t="s" s="25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" s="26">
-        <v>223</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="22">
         <f>G10*E10</f>
         <v>0</v>
       </c>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="23">
         <v>4</v>
       </c>
       <c r="B11" t="s" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s" s="25">
         <v>15</v>
       </c>
       <c r="D11" t="s" s="25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="26">
-        <v>182</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="22">
         <f>G11*E11</f>
         <v>0</v>
       </c>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="23">
         <v>5</v>
       </c>
       <c r="B12" t="s" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s" s="25">
         <v>15</v>
       </c>
       <c r="D12" t="s" s="25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="26">
-        <v>208</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="22">
         <f>G12*E12</f>
         <v>0</v>
       </c>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="23">
         <v>6</v>
       </c>
       <c r="B13" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="D13" t="s" s="25">
-        <v>22</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="26">
-        <v>176</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="22">
         <f>G13*E13</f>
         <v>0</v>
       </c>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="23">
         <v>7</v>
       </c>
       <c r="B14" t="s" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s" s="25">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="26">
-        <v>330</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="22">
         <f>G14*E14</f>
         <v>0</v>
       </c>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="23">
@@ -2832,2159 +2975,3004 @@
         <v>26</v>
       </c>
       <c r="C15" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s" s="25">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="26">
-        <v>350</v>
+        <v>62</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="22">
         <f>G15*E15</f>
         <v>0</v>
       </c>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="23">
         <v>9</v>
       </c>
       <c r="B16" t="s" s="24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s" s="25">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="26">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="22">
         <f>G16*E16</f>
         <v>0</v>
       </c>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="23">
         <v>10</v>
       </c>
       <c r="B17" t="s" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s" s="25">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="26">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="22">
         <f>G17*E17</f>
         <v>0</v>
       </c>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="23">
         <v>11</v>
       </c>
       <c r="B18" t="s" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s" s="25">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="26">
-        <v>330</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="22">
         <f>G18*E18</f>
         <v>0</v>
       </c>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" t="s" s="29">
-        <v>31</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="22"/>
+      <c r="A19" s="23">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26">
+        <v>135</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22">
+        <f>G19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="23">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s" s="25">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="26">
-        <v>230</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="22">
         <f>G20*E20</f>
         <v>0</v>
       </c>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="23">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="24">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s" s="25">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D21" s="25"/>
       <c r="E21" s="26">
-        <v>420</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
+        <v>95</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="22">
         <f>G21*E21</f>
         <v>0</v>
       </c>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="23">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s" s="24">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s" s="25">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="26">
-        <v>197</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="22">
         <f>G22*E22</f>
         <v>0</v>
       </c>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s" s="24">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s" s="25">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="26">
-        <v>260</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="22">
         <f>G23*E23</f>
         <v>0</v>
       </c>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" t="s" s="29">
-        <v>38</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="22"/>
+      <c r="A24" s="23">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26">
+        <v>26</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22">
+        <f>G24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="23">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s" s="24">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s" s="25">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="26">
-        <v>120</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="22">
         <f>G25*E25</f>
         <v>0</v>
       </c>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="23">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s" s="24">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s" s="25">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="26">
-        <v>120</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="22">
         <f>G26*E26</f>
         <v>0</v>
       </c>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="23">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s" s="24">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s" s="25">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="26">
-        <v>115</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="27"/>
+        <v>136</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="22">
         <f>G27*E27</f>
         <v>0</v>
       </c>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="23">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s" s="24">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s" s="25">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s" s="25">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="26">
-        <v>71</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="27"/>
+        <v>170</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="22">
         <f>G28*E28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="21" customHeight="1">
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="23">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s" s="24">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s" s="25">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="26">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="22">
         <f>G29*E29</f>
         <v>0</v>
       </c>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="23">
+        <v>23</v>
+      </c>
       <c r="B30" t="s" s="24">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s" s="25">
-        <v>48</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="26">
-        <v>230</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="27"/>
+        <v>235</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="22">
         <f>G30*E30</f>
         <v>0</v>
       </c>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" t="s" s="32">
-        <v>49</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="22"/>
+      <c r="A31" s="23">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26">
+        <v>275</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22">
+        <f>G31*E31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="35">
-        <v>1</v>
+      <c r="A32" s="23">
+        <v>25</v>
       </c>
       <c r="B32" t="s" s="24">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D32" t="s" s="25">
-        <v>52</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D32" s="25"/>
       <c r="E32" s="26">
-        <v>24</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="36"/>
+        <v>325</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="22">
         <f>G32*E32</f>
         <v>0</v>
       </c>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="35">
-        <v>2</v>
+      <c r="A33" s="23">
+        <v>26</v>
       </c>
       <c r="B33" t="s" s="24">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s" s="25">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="26">
-        <v>21</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="36"/>
+        <v>460</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="22">
         <f>G33*E33</f>
         <v>0</v>
       </c>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="35">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s" s="24">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s" s="25">
-        <v>56</v>
-      </c>
-      <c r="E34" s="26">
-        <v>19</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="22">
-        <f>G34*E34</f>
-        <v>0</v>
-      </c>
+      <c r="A34" t="s" s="19">
+        <v>45</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="35">
-        <v>4</v>
+      <c r="A35" s="23">
+        <v>1</v>
       </c>
       <c r="B35" t="s" s="24">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s" s="25">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s" s="25">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E35" s="26">
-        <v>40</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="36"/>
+        <v>230</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="22">
         <f>G35*E35</f>
         <v>0</v>
       </c>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="35">
-        <v>5</v>
+      <c r="A36" s="23">
+        <v>2</v>
       </c>
       <c r="B36" t="s" s="24">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s" s="25">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s" s="25">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E36" s="26">
-        <v>36</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="22">
         <f>G36*E36</f>
         <v>0</v>
       </c>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="35">
-        <v>6</v>
+      <c r="A37" s="23">
+        <v>3</v>
       </c>
       <c r="B37" t="s" s="24">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s" s="25">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s" s="25">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E37" s="26">
-        <v>22</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="22">
         <f>G37*E37</f>
         <v>0</v>
       </c>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="35">
-        <v>7</v>
+      <c r="A38" s="23">
+        <v>4</v>
       </c>
       <c r="B38" t="s" s="24">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s" s="25">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s" s="25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E38" s="26">
-        <v>33</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="36"/>
+        <v>200</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="22">
         <f>G38*E38</f>
         <v>0</v>
       </c>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="35">
-        <v>8</v>
+      <c r="A39" s="23">
+        <v>5</v>
       </c>
       <c r="B39" t="s" s="24">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s" s="25">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s" s="25">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="26">
-        <v>27</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="36"/>
+        <v>228</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="22">
         <f>G39*E39</f>
         <v>0</v>
       </c>
+      <c r="I39" s="22"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="35">
-        <v>9</v>
+      <c r="A40" s="23">
+        <v>6</v>
       </c>
       <c r="B40" t="s" s="24">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s" s="25">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s" s="25">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E40" s="26">
-        <v>26</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="36"/>
+        <v>176</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="22">
         <f>G40*E40</f>
         <v>0</v>
       </c>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="35">
-        <v>10</v>
+      <c r="A41" s="23">
+        <v>7</v>
       </c>
       <c r="B41" t="s" s="24">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D41" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="D41" t="s" s="25">
+        <v>52</v>
+      </c>
       <c r="E41" s="26">
-        <v>60</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="36"/>
+        <v>330</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="22">
         <f>G41*E41</f>
         <v>0</v>
       </c>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="35">
-        <v>11</v>
+      <c r="A42" s="23">
+        <v>8</v>
       </c>
       <c r="B42" t="s" s="24">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D42" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="D42" t="s" s="25">
+        <v>59</v>
+      </c>
       <c r="E42" s="26">
-        <v>65</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="36"/>
+        <v>350</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="22">
         <f>G42*E42</f>
         <v>0</v>
       </c>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="35">
-        <v>12</v>
+      <c r="A43" s="23">
+        <v>9</v>
       </c>
       <c r="B43" t="s" s="24">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s" s="25">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s" s="25">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E43" s="26">
-        <v>115</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="36"/>
+        <v>370</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="22">
         <f>G43*E43</f>
         <v>0</v>
       </c>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="35">
-        <v>13</v>
+      <c r="A44" s="23">
+        <v>10</v>
       </c>
       <c r="B44" t="s" s="24">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s" s="25">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s" s="25">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E44" s="26">
-        <v>85</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="36"/>
+        <v>280</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="22">
         <f>G44*E44</f>
         <v>0</v>
       </c>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="35">
-        <v>14</v>
+      <c r="A45" s="23">
+        <v>11</v>
       </c>
       <c r="B45" t="s" s="24">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D45" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="D45" t="s" s="25">
+        <v>48</v>
+      </c>
       <c r="E45" s="26">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="22">
         <f>G45*E45</f>
         <v>0</v>
       </c>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="35">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s" s="24">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="26">
-        <v>180</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="22">
-        <f>G46*E46</f>
-        <v>0</v>
-      </c>
+      <c r="A46" t="s" s="31">
+        <v>63</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="35">
-        <v>16</v>
+      <c r="A47" s="23">
+        <v>1</v>
       </c>
       <c r="B47" t="s" s="24">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D47" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="D47" t="s" s="25">
+        <v>54</v>
+      </c>
       <c r="E47" s="26">
-        <v>5.8</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="36"/>
+        <v>230</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="22">
         <f>G47*E47</f>
         <v>0</v>
       </c>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="35">
-        <v>17</v>
+      <c r="A48" s="23">
+        <v>2</v>
       </c>
       <c r="B48" t="s" s="24">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D48" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="D48" t="s" s="25">
+        <v>48</v>
+      </c>
       <c r="E48" s="26">
-        <v>4.8</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="36"/>
+        <v>197</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="22">
         <f>G48*E48</f>
         <v>0</v>
       </c>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="35">
-        <v>18</v>
+      <c r="A49" s="23">
+        <v>3</v>
       </c>
       <c r="B49" t="s" s="24">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="26">
-        <v>3.6</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="36"/>
+        <v>65</v>
+      </c>
+      <c r="D49" t="s" s="25">
+        <v>68</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="22">
         <f>G49*E49</f>
         <v>0</v>
       </c>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="35">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s" s="24">
-        <v>78</v>
-      </c>
-      <c r="C50" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s" s="25">
-        <v>79</v>
-      </c>
-      <c r="E50" s="26">
-        <v>22</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="22">
-        <f>G50*E50</f>
-        <v>0</v>
-      </c>
+      <c r="A50" t="s" s="31">
+        <v>69</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="35">
-        <v>20</v>
+      <c r="A51" s="23">
+        <v>1</v>
       </c>
       <c r="B51" t="s" s="24">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D51" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="D51" t="s" s="25">
+        <v>59</v>
+      </c>
       <c r="E51" s="26">
-        <v>7.3</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="36"/>
+        <v>146</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="22">
         <f>G51*E51</f>
         <v>0</v>
       </c>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="35">
-        <v>21</v>
+      <c r="A52" s="23">
+        <v>2</v>
       </c>
       <c r="B52" t="s" s="24">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D52" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="D52" t="s" s="25">
+        <v>73</v>
+      </c>
       <c r="E52" s="26">
-        <v>7.3</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="36"/>
+        <v>146</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="22">
         <f>G52*E52</f>
         <v>0</v>
       </c>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="35">
-        <v>22</v>
+      <c r="A53" s="23">
+        <v>3</v>
       </c>
       <c r="B53" t="s" s="24">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D53" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="D53" t="s" s="25">
+        <v>48</v>
+      </c>
       <c r="E53" s="26">
-        <v>7.3</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="36"/>
+        <v>72</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="22">
         <f>G53*E53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="35">
-        <v>23</v>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" ht="21" customHeight="1">
+      <c r="A54" s="23">
+        <v>4</v>
       </c>
       <c r="B54" t="s" s="24">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D54" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="26">
-        <v>4.5</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="36"/>
+        <v>330</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="22">
         <f>G54*E54</f>
         <v>0</v>
       </c>
+      <c r="I54" s="22"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="35">
-        <v>24</v>
+      <c r="A55" s="23">
+        <v>5</v>
       </c>
       <c r="B55" t="s" s="24">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s" s="25">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s" s="25">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="26">
-        <v>35</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="22">
         <f>G55*E55</f>
         <v>0</v>
       </c>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="35">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s" s="24">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="22">
-        <f>G56*E56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="21" customHeight="1">
-      <c r="A57" s="35">
-        <v>26</v>
+      <c r="A56" s="34"/>
+      <c r="B56" t="s" s="31">
+        <v>79</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="23">
+        <v>1</v>
       </c>
       <c r="B57" t="s" s="24">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D57" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="D57" t="s" s="25">
+        <v>82</v>
+      </c>
       <c r="E57" s="26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="36"/>
+        <v>150</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="22">
         <f>G57*E57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" ht="21" customHeight="1">
-      <c r="A58" s="35">
-        <v>27</v>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="23">
+        <v>2</v>
       </c>
       <c r="B58" t="s" s="24">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D58" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="D58" t="s" s="25">
+        <v>48</v>
+      </c>
       <c r="E58" s="26">
-        <v>5.2</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="36"/>
+        <v>175</v>
+      </c>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="22">
         <f>G58*E58</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" ht="21" customHeight="1">
-      <c r="A59" s="35">
-        <v>28</v>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="23">
+        <v>3</v>
       </c>
       <c r="B59" t="s" s="24">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="D59" t="s" s="25">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="26">
-        <v>40</v>
-      </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="22">
         <f>G59*E59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" ht="21" customHeight="1">
-      <c r="A60" s="35">
-        <v>29</v>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="23">
+        <v>4</v>
       </c>
       <c r="B60" t="s" s="24">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s" s="25">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="26">
-        <v>19</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="36"/>
+        <v>220</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="22">
         <f>G60*E60</f>
         <v>0</v>
       </c>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" t="s" s="29">
+      <c r="A61" s="23">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s" s="24">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s" s="25">
+        <v>84</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26">
+        <v>230</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="22">
+        <f>G61*E61</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" t="s" s="35">
+        <v>87</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="38">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s" s="24">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s" s="25">
         <v>89</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="22"/>
-    </row>
-    <row r="62" ht="18.75" customHeight="1">
-      <c r="A62" s="35">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s" s="24">
-        <v>90</v>
-      </c>
-      <c r="C62" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="26">
-        <v>55</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="22">
-        <f>G62*E62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="21" customHeight="1">
-      <c r="A63" s="35">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s" s="24">
-        <v>91</v>
-      </c>
-      <c r="C63" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D63" s="37"/>
+      <c r="D63" t="s" s="25">
+        <v>16</v>
+      </c>
       <c r="E63" s="26">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F63" s="26"/>
-      <c r="G63" s="36"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="22">
         <f>G63*E63</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" s="35">
-        <v>3</v>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="38">
+        <v>2</v>
       </c>
       <c r="B64" t="s" s="24">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D64" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="D64" t="s" s="25">
+        <v>18</v>
+      </c>
       <c r="E64" s="26">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F64" s="26"/>
-      <c r="G64" s="36"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="22">
         <f>G64*E64</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" ht="21" customHeight="1">
-      <c r="A65" s="35">
-        <v>4</v>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="38">
+        <v>3</v>
       </c>
       <c r="B65" t="s" s="24">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s" s="25">
-        <v>94</v>
-      </c>
-      <c r="D65" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="D65" t="s" s="25">
+        <v>92</v>
+      </c>
       <c r="E65" s="26">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F65" s="26"/>
-      <c r="G65" s="36"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="22">
         <f>G65*E65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" ht="21" customHeight="1">
-      <c r="A66" s="35">
-        <v>5</v>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="38">
+        <v>4</v>
       </c>
       <c r="B66" t="s" s="24">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D66" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="D66" t="s" s="25">
+        <v>94</v>
+      </c>
       <c r="E66" s="26">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" s="26"/>
-      <c r="G66" s="36"/>
+      <c r="G66" s="39"/>
       <c r="H66" s="22">
         <f>G66*E66</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" ht="21" customHeight="1">
-      <c r="A67" s="35">
-        <v>6</v>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="38">
+        <v>5</v>
       </c>
       <c r="B67" t="s" s="24">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s" s="25">
         <v>96</v>
       </c>
-      <c r="C67" t="s" s="25">
-        <v>97</v>
-      </c>
-      <c r="D67" s="37"/>
       <c r="E67" s="26">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F67" s="26"/>
-      <c r="G67" s="36"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="22">
         <f>G67*E67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="35">
-        <v>7</v>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="38">
+        <v>6</v>
       </c>
       <c r="B68" t="s" s="24">
+        <v>97</v>
+      </c>
+      <c r="C68" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s" s="25">
         <v>98</v>
       </c>
-      <c r="C68" t="s" s="25">
-        <v>97</v>
-      </c>
-      <c r="D68" s="37"/>
       <c r="E68" s="26">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="36"/>
+      <c r="G68" s="39"/>
       <c r="H68" s="22">
         <f>G68*E68</f>
         <v>0</v>
       </c>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="A69" s="35">
-        <v>8</v>
+      <c r="A69" s="38">
+        <v>7</v>
       </c>
       <c r="B69" t="s" s="24">
         <v>99</v>
       </c>
       <c r="C69" t="s" s="25">
-        <v>97</v>
-      </c>
-      <c r="D69" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="D69" t="s" s="25">
+        <v>98</v>
+      </c>
       <c r="E69" s="26">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="36"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="22">
         <f>G69*E69</f>
         <v>0</v>
       </c>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" s="35">
-        <v>9</v>
+      <c r="A70" s="38">
+        <v>8</v>
       </c>
       <c r="B70" t="s" s="24">
         <v>100</v>
       </c>
       <c r="C70" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D70" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="D70" t="s" s="25">
+        <v>16</v>
+      </c>
       <c r="E70" s="26">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="36"/>
+      <c r="G70" s="39"/>
       <c r="H70" s="22">
         <f>G70*E70</f>
         <v>0</v>
       </c>
+      <c r="I70" s="22"/>
     </row>
     <row r="71" ht="18.75" customHeight="1">
-      <c r="A71" s="35">
-        <v>10</v>
+      <c r="A71" s="38">
+        <v>9</v>
       </c>
       <c r="B71" t="s" s="24">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s" s="25">
         <v>101</v>
       </c>
-      <c r="C71" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D71" s="37"/>
+      <c r="D71" t="s" s="25">
+        <v>18</v>
+      </c>
       <c r="E71" s="26">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="36"/>
+      <c r="G71" s="39"/>
       <c r="H71" s="22">
         <f>G71*E71</f>
         <v>0</v>
       </c>
+      <c r="I71" s="22"/>
     </row>
     <row r="72" ht="18.75" customHeight="1">
-      <c r="A72" s="35">
-        <v>11</v>
+      <c r="A72" s="38">
+        <v>10</v>
       </c>
       <c r="B72" t="s" s="24">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D72" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="D72" s="40"/>
       <c r="E72" s="26">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="36"/>
+      <c r="G72" s="39"/>
       <c r="H72" s="22">
         <f>G72*E72</f>
         <v>0</v>
       </c>
+      <c r="I72" s="22"/>
     </row>
     <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" s="35">
-        <v>12</v>
+      <c r="A73" s="38">
+        <v>11</v>
       </c>
       <c r="B73" t="s" s="24">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D73" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="D73" s="40"/>
       <c r="E73" s="26">
-        <v>75</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
+        <v>65</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="22">
         <f>G73*E73</f>
         <v>0</v>
       </c>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" s="35">
-        <v>13</v>
+      <c r="A74" s="38">
+        <v>12</v>
       </c>
       <c r="B74" t="s" s="24">
-        <v>104</v>
-      </c>
-      <c r="C74" t="s" s="38">
-        <v>51</v>
-      </c>
-      <c r="D74" s="37"/>
+        <v>105</v>
+      </c>
+      <c r="C74" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s" s="25">
+        <v>106</v>
+      </c>
       <c r="E74" s="26">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F74" s="26"/>
-      <c r="G74" s="36"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="22">
         <f>G74*E74</f>
         <v>0</v>
       </c>
+      <c r="I74" s="22"/>
     </row>
     <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" s="35">
-        <v>14</v>
+      <c r="A75" s="38">
+        <v>13</v>
       </c>
       <c r="B75" t="s" s="24">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="39">
-        <v>72</v>
-      </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="D75" t="s" s="25">
+        <v>108</v>
+      </c>
+      <c r="E75" s="26">
+        <v>90</v>
+      </c>
+      <c r="F75" s="26"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="22">
         <f>G75*E75</f>
         <v>0</v>
       </c>
+      <c r="I75" s="22"/>
     </row>
     <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" s="35">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s" s="41">
-        <v>106</v>
-      </c>
-      <c r="C76" t="s" s="38">
-        <v>51</v>
-      </c>
-      <c r="D76" s="37"/>
+      <c r="A76" s="38">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s" s="24">
+        <v>109</v>
+      </c>
+      <c r="C76" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D76" s="40"/>
       <c r="E76" s="26">
-        <v>60</v>
-      </c>
-      <c r="F76" s="40"/>
-      <c r="G76" s="36"/>
+        <v>110</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="22">
         <f>G76*E76</f>
         <v>0</v>
       </c>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" s="35">
-        <v>16</v>
+      <c r="A77" s="38">
+        <v>15</v>
       </c>
       <c r="B77" t="s" s="24">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="39">
-        <v>50</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="D77" s="40"/>
+      <c r="E77" s="26">
+        <v>180</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="22">
         <f>G77*E77</f>
         <v>0</v>
       </c>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" s="35">
-        <v>17</v>
+      <c r="A78" s="38">
+        <v>16</v>
       </c>
       <c r="B78" t="s" s="24">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D78" t="s" s="25">
-        <v>52</v>
-      </c>
-      <c r="E78" s="39">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="D78" s="40"/>
+      <c r="E78" s="26">
+        <v>6</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="36"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="22">
         <f>G78*E78</f>
         <v>0</v>
       </c>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" s="35">
-        <v>18</v>
+      <c r="A79" s="38">
+        <v>17</v>
       </c>
       <c r="B79" t="s" s="24">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D79" t="s" s="25">
-        <v>52</v>
-      </c>
-      <c r="E79" s="39">
-        <v>90</v>
-      </c>
-      <c r="F79" s="40"/>
-      <c r="G79" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="D79" s="40"/>
+      <c r="E79" s="26">
+        <v>5</v>
+      </c>
+      <c r="F79" s="26"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="22">
         <f>G79*E79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" ht="21" customHeight="1">
-      <c r="A80" s="35">
-        <v>19</v>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" s="38">
+        <v>18</v>
       </c>
       <c r="B80" t="s" s="24">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="39">
-        <v>45</v>
-      </c>
-      <c r="F80" s="40"/>
-      <c r="G80" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="D80" s="40"/>
+      <c r="E80" s="26">
+        <v>4</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="22">
         <f>G80*E80</f>
         <v>0</v>
       </c>
+      <c r="I80" s="22"/>
     </row>
     <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" s="35">
-        <v>20</v>
+      <c r="A81" s="38">
+        <v>19</v>
       </c>
       <c r="B81" t="s" s="24">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="39">
-        <v>68</v>
-      </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="D81" t="s" s="25">
+        <v>115</v>
+      </c>
+      <c r="E81" s="26">
+        <v>22</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="22">
         <f>G81*E81</f>
         <v>0</v>
       </c>
+      <c r="I81" s="22"/>
     </row>
     <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" s="35">
-        <v>21</v>
+      <c r="A82" s="38">
+        <v>20</v>
       </c>
       <c r="B82" t="s" s="24">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="39">
-        <v>83</v>
-      </c>
-      <c r="F82" s="40"/>
-      <c r="G82" s="36"/>
+        <v>47</v>
+      </c>
+      <c r="D82" s="40"/>
+      <c r="E82" s="26">
+        <v>8</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="22">
         <f>G82*E82</f>
         <v>0</v>
       </c>
+      <c r="I82" s="22"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
-      <c r="A83" s="35">
-        <v>22</v>
+      <c r="A83" s="38">
+        <v>21</v>
       </c>
       <c r="B83" t="s" s="24">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D83" t="s" s="25">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D83" s="40"/>
       <c r="E83" s="26">
-        <v>175</v>
-      </c>
-      <c r="F83" s="40"/>
-      <c r="G83" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="22">
         <f>G83*E83</f>
         <v>0</v>
       </c>
+      <c r="I83" s="22"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
-      <c r="A84" s="35">
-        <v>23</v>
+      <c r="A84" s="38">
+        <v>22</v>
       </c>
       <c r="B84" t="s" s="24">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D84" t="s" s="25">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D84" s="40"/>
       <c r="E84" s="26">
-        <v>185</v>
-      </c>
-      <c r="F84" s="40"/>
-      <c r="G84" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="39"/>
       <c r="H84" s="22">
         <f>G84*E84</f>
         <v>0</v>
       </c>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
-      <c r="A85" s="35">
-        <v>24</v>
+      <c r="A85" s="38">
+        <v>23</v>
       </c>
       <c r="B85" t="s" s="24">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D85" t="s" s="25">
-        <v>116</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D85" s="40"/>
       <c r="E85" s="26">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="36"/>
+      <c r="G85" s="39"/>
       <c r="H85" s="22">
         <f>G85*E85</f>
         <v>0</v>
       </c>
+      <c r="I85" s="22"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="A86" s="35">
-        <v>25</v>
+      <c r="A86" s="38">
+        <v>24</v>
       </c>
       <c r="B86" t="s" s="24">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s" s="25">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s" s="25">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E86" s="26">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="F86" s="26"/>
-      <c r="G86" s="36"/>
+      <c r="G86" s="39"/>
       <c r="H86" s="22">
         <f>G86*E86</f>
         <v>0</v>
       </c>
+      <c r="I86" s="22"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="A87" s="35">
-        <v>26</v>
+      <c r="A87" s="38">
+        <v>25</v>
       </c>
       <c r="B87" t="s" s="24">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D87" t="s" s="25">
-        <v>120</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D87" s="40"/>
       <c r="E87" s="26">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="F87" s="26"/>
-      <c r="G87" s="36"/>
+      <c r="G87" s="39"/>
       <c r="H87" s="22">
         <f>G87*E87</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" ht="18.75" customHeight="1">
-      <c r="A88" s="35">
-        <v>27</v>
+      <c r="I87" s="22"/>
+    </row>
+    <row r="88" ht="21" customHeight="1">
+      <c r="A88" s="38">
+        <v>26</v>
       </c>
       <c r="B88" t="s" s="24">
         <v>121</v>
       </c>
       <c r="C88" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D88" t="s" s="25">
-        <v>122</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D88" s="40"/>
       <c r="E88" s="26">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="36"/>
+      <c r="G88" s="39"/>
       <c r="H88" s="22">
         <f>G88*E88</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" ht="18.75" customHeight="1">
-      <c r="A89" s="35">
-        <v>28</v>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" ht="21" customHeight="1">
+      <c r="A89" s="38">
+        <v>27</v>
       </c>
       <c r="B89" t="s" s="24">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D89" t="s" s="25">
-        <v>124</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D89" s="40"/>
       <c r="E89" s="26">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="F89" s="26"/>
-      <c r="G89" s="36"/>
+      <c r="G89" s="39"/>
       <c r="H89" s="22">
         <f>G89*E89</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" ht="18.75" customHeight="1">
-      <c r="A90" s="35">
-        <v>29</v>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="90" ht="21" customHeight="1">
+      <c r="A90" s="38">
+        <v>28</v>
       </c>
       <c r="B90" t="s" s="24">
-        <v>125</v>
-      </c>
-      <c r="C90" t="s" s="24">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="C90" t="s" s="25">
+        <v>71</v>
       </c>
       <c r="D90" t="s" s="25">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E90" s="26">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="F90" s="26"/>
-      <c r="G90" s="36"/>
+      <c r="G90" s="39"/>
       <c r="H90" s="22">
         <f>G90*E90</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="35">
-        <v>30</v>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" ht="21" customHeight="1">
+      <c r="A91" s="38">
+        <v>29</v>
       </c>
       <c r="B91" t="s" s="24">
-        <v>126</v>
-      </c>
-      <c r="C91" t="s" s="24">
-        <v>64</v>
-      </c>
-      <c r="D91" t="s" s="25">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C91" t="s" s="25">
+        <v>71</v>
+      </c>
+      <c r="D91" s="25"/>
       <c r="E91" s="26">
-        <v>460</v>
+        <v>23</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="36"/>
+      <c r="G91" s="39"/>
       <c r="H91" s="22">
         <f>G91*E91</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" s="35">
-        <v>31</v>
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" ht="21" customHeight="1">
+      <c r="A92" s="38">
+        <v>30</v>
       </c>
       <c r="B92" t="s" s="24">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D92" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="D92" s="25"/>
       <c r="E92" s="26">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F92" s="26"/>
-      <c r="G92" s="36"/>
+      <c r="G92" s="39"/>
       <c r="H92" s="22">
         <f>G92*E92</f>
         <v>0</v>
       </c>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="35">
-        <v>32</v>
-      </c>
-      <c r="B93" t="s" s="24">
-        <v>129</v>
-      </c>
-      <c r="C93" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="26">
-        <v>12</v>
-      </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="22">
-        <f>G93*E93</f>
-        <v>0</v>
-      </c>
+      <c r="A93" t="s" s="31">
+        <v>126</v>
+      </c>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="35">
-        <v>33</v>
+      <c r="A94" s="38">
+        <v>1</v>
       </c>
       <c r="B94" t="s" s="24">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D94" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="D94" s="40"/>
       <c r="E94" s="26">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F94" s="26"/>
-      <c r="G94" s="36"/>
+      <c r="G94" s="39"/>
       <c r="H94" s="22">
         <f>G94*E94</f>
         <v>0</v>
       </c>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" s="35">
-        <v>34</v>
+      <c r="A95" s="38">
+        <v>2</v>
       </c>
       <c r="B95" t="s" s="24">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="D95" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="D95" s="40"/>
       <c r="E95" s="26">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F95" s="26"/>
-      <c r="G95" s="36"/>
+      <c r="G95" s="39"/>
       <c r="H95" s="22">
         <f>G95*E95</f>
         <v>0</v>
       </c>
+      <c r="I95" s="22"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" s="35">
-        <v>35</v>
+      <c r="A96" s="38">
+        <v>3</v>
       </c>
       <c r="B96" t="s" s="24">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="D96" t="s" s="25">
-        <v>133</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D96" s="25"/>
       <c r="E96" s="26">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F96" s="26"/>
-      <c r="G96" s="36"/>
+      <c r="G96" s="39"/>
       <c r="H96" s="22">
         <f>G96*E96</f>
         <v>0</v>
       </c>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" s="35">
-        <v>36</v>
+      <c r="A97" s="38">
+        <v>4</v>
       </c>
       <c r="B97" t="s" s="24">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D97" s="25"/>
+        <v>131</v>
+      </c>
+      <c r="D97" s="40"/>
       <c r="E97" s="26">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F97" s="26"/>
-      <c r="G97" s="36"/>
+      <c r="G97" s="39"/>
       <c r="H97" s="22">
         <f>G97*E97</f>
         <v>0</v>
       </c>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" s="35">
-        <v>37</v>
+      <c r="A98" s="38">
+        <v>5</v>
       </c>
       <c r="B98" t="s" s="24">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="D98" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="D98" s="40"/>
       <c r="E98" s="26">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="F98" s="26"/>
-      <c r="G98" s="36"/>
+      <c r="G98" s="39"/>
       <c r="H98" s="22">
         <f>G98*E98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" ht="18.75" customHeight="1">
-      <c r="A99" t="s" s="29">
-        <v>136</v>
-      </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="22"/>
+      <c r="I98" s="22"/>
+    </row>
+    <row r="99" ht="21" customHeight="1">
+      <c r="A99" s="38">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s" s="24">
+        <v>133</v>
+      </c>
+      <c r="C99" t="s" s="25">
+        <v>134</v>
+      </c>
+      <c r="D99" s="40"/>
+      <c r="E99" s="26">
+        <v>44</v>
+      </c>
+      <c r="F99" s="26"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="22">
+        <f>G99*E99</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="22"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" s="23">
-        <v>1</v>
+      <c r="A100" s="38">
+        <v>7</v>
       </c>
       <c r="B100" t="s" s="24">
-        <v>137</v>
-      </c>
-      <c r="C100" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D100" t="s" s="42">
-        <v>139</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C100" t="s" s="25">
+        <v>134</v>
+      </c>
+      <c r="D100" s="40"/>
       <c r="E100" s="26">
-        <v>68</v>
-      </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="F100" s="26"/>
+      <c r="G100" s="39"/>
       <c r="H100" s="22">
         <f>G100*E100</f>
         <v>0</v>
       </c>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
-      <c r="A101" s="23">
-        <v>2</v>
+      <c r="A101" s="38">
+        <v>8</v>
       </c>
       <c r="B101" t="s" s="24">
-        <v>140</v>
-      </c>
-      <c r="C101" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D101" t="s" s="42">
-        <v>141</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C101" t="s" s="25">
+        <v>134</v>
+      </c>
+      <c r="D101" s="40"/>
       <c r="E101" s="26">
-        <v>55</v>
-      </c>
-      <c r="F101" s="28"/>
-      <c r="G101" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="F101" s="26"/>
+      <c r="G101" s="39"/>
       <c r="H101" s="22">
         <f>G101*E101</f>
         <v>0</v>
       </c>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
-      <c r="A102" s="23">
-        <v>3</v>
+      <c r="A102" s="38">
+        <v>9</v>
       </c>
       <c r="B102" t="s" s="24">
-        <v>142</v>
-      </c>
-      <c r="C102" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D102" t="s" s="42">
-        <v>143</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C102" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D102" s="40"/>
       <c r="E102" s="26">
-        <v>55</v>
-      </c>
-      <c r="F102" s="28"/>
-      <c r="G102" s="27"/>
+        <v>190</v>
+      </c>
+      <c r="F102" s="26"/>
+      <c r="G102" s="39"/>
       <c r="H102" s="22">
         <f>G102*E102</f>
         <v>0</v>
       </c>
+      <c r="I102" s="22"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
-      <c r="A103" s="23">
-        <v>4</v>
+      <c r="A103" s="38">
+        <v>10</v>
       </c>
       <c r="B103" t="s" s="24">
-        <v>144</v>
-      </c>
-      <c r="C103" s="24"/>
-      <c r="D103" t="s" s="42">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C103" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D103" s="40"/>
       <c r="E103" s="26">
-        <v>135</v>
-      </c>
-      <c r="F103" s="28"/>
-      <c r="G103" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="F103" s="26"/>
+      <c r="G103" s="39"/>
       <c r="H103" s="22">
         <f>G103*E103</f>
         <v>0</v>
       </c>
+      <c r="I103" s="22"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
-      <c r="A104" s="23">
-        <v>5</v>
+      <c r="A104" s="38">
+        <v>11</v>
       </c>
       <c r="B104" t="s" s="24">
-        <v>145</v>
-      </c>
-      <c r="C104" s="24"/>
-      <c r="D104" t="s" s="42">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C104" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D104" s="40"/>
       <c r="E104" s="26">
-        <v>125</v>
-      </c>
-      <c r="F104" s="28"/>
-      <c r="G104" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="F104" s="26"/>
+      <c r="G104" s="39"/>
       <c r="H104" s="22">
         <f>G104*E104</f>
         <v>0</v>
       </c>
+      <c r="I104" s="22"/>
     </row>
     <row r="105" ht="18.75" customHeight="1">
-      <c r="A105" s="23">
-        <v>6</v>
+      <c r="A105" s="38">
+        <v>12</v>
       </c>
       <c r="B105" t="s" s="24">
-        <v>146</v>
-      </c>
-      <c r="C105" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D105" t="s" s="42">
-        <v>147</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C105" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D105" s="40"/>
       <c r="E105" s="26">
-        <v>338</v>
-      </c>
-      <c r="F105" s="28"/>
-      <c r="G105" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
       <c r="H105" s="22">
         <f>G105*E105</f>
         <v>0</v>
       </c>
+      <c r="I105" s="22"/>
     </row>
     <row r="106" ht="18.75" customHeight="1">
-      <c r="A106" s="23">
-        <v>7</v>
+      <c r="A106" s="38">
+        <v>13</v>
       </c>
       <c r="B106" t="s" s="24">
-        <v>148</v>
-      </c>
-      <c r="C106" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D106" t="s" s="42">
-        <v>149</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C106" t="s" s="41">
+        <v>89</v>
+      </c>
+      <c r="D106" s="40"/>
       <c r="E106" s="26">
-        <v>390</v>
-      </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="F106" s="26"/>
+      <c r="G106" s="39"/>
       <c r="H106" s="22">
         <f>G106*E106</f>
         <v>0</v>
       </c>
+      <c r="I106" s="22"/>
     </row>
     <row r="107" ht="18.75" customHeight="1">
-      <c r="A107" s="23">
-        <v>8</v>
+      <c r="A107" s="38">
+        <v>14</v>
       </c>
       <c r="B107" t="s" s="24">
-        <v>150</v>
-      </c>
-      <c r="C107" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D107" t="s" s="42">
-        <v>151</v>
-      </c>
-      <c r="E107" s="26">
-        <v>335</v>
-      </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
+        <v>142</v>
+      </c>
+      <c r="C107" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D107" s="40"/>
+      <c r="E107" s="42">
+        <v>77</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="39"/>
       <c r="H107" s="22">
         <f>G107*E107</f>
         <v>0</v>
       </c>
+      <c r="I107" s="22"/>
     </row>
     <row r="108" ht="18.75" customHeight="1">
-      <c r="A108" s="23">
-        <v>9</v>
-      </c>
-      <c r="B108" t="s" s="24">
-        <v>152</v>
-      </c>
-      <c r="C108" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D108" t="s" s="42">
-        <v>151</v>
-      </c>
+      <c r="A108" s="38">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s" s="44">
+        <v>143</v>
+      </c>
+      <c r="C108" t="s" s="41">
+        <v>89</v>
+      </c>
+      <c r="D108" s="40"/>
       <c r="E108" s="26">
-        <v>310</v>
-      </c>
-      <c r="F108" s="28"/>
-      <c r="G108" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="F108" s="43"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="22">
         <f>G108*E108</f>
         <v>0</v>
       </c>
+      <c r="I108" s="22"/>
     </row>
     <row r="109" ht="18.75" customHeight="1">
-      <c r="A109" s="23">
-        <v>10</v>
+      <c r="A109" s="38">
+        <v>16</v>
       </c>
       <c r="B109" t="s" s="24">
-        <v>153</v>
-      </c>
-      <c r="C109" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D109" t="s" s="42">
-        <v>147</v>
-      </c>
-      <c r="E109" s="26">
-        <v>172</v>
-      </c>
-      <c r="F109" s="28"/>
-      <c r="G109" s="27"/>
+        <v>144</v>
+      </c>
+      <c r="C109" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D109" s="40"/>
+      <c r="E109" s="42">
+        <v>52</v>
+      </c>
+      <c r="F109" s="26"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="22">
         <f>G109*E109</f>
         <v>0</v>
       </c>
+      <c r="I109" s="22"/>
     </row>
     <row r="110" ht="18.75" customHeight="1">
-      <c r="A110" s="23">
-        <v>11</v>
+      <c r="A110" s="38">
+        <v>17</v>
       </c>
       <c r="B110" t="s" s="24">
-        <v>154</v>
-      </c>
-      <c r="C110" t="s" s="24">
-        <v>138</v>
-      </c>
-      <c r="D110" t="s" s="42">
-        <v>149</v>
-      </c>
-      <c r="E110" s="39">
-        <v>198</v>
-      </c>
-      <c r="F110" s="43"/>
-      <c r="G110" s="27"/>
+        <v>145</v>
+      </c>
+      <c r="C110" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D110" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="E110" s="42">
+        <v>85</v>
+      </c>
+      <c r="F110" s="26"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="22">
         <f>G110*E110</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" ht="21" customHeight="1">
-      <c r="A111" s="23">
-        <v>12</v>
+      <c r="I110" s="22"/>
+    </row>
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="38">
+        <v>18</v>
       </c>
       <c r="B111" t="s" s="24">
-        <v>155</v>
-      </c>
-      <c r="C111" t="s" s="24">
-        <v>156</v>
-      </c>
-      <c r="D111" t="s" s="24">
-        <v>157</v>
-      </c>
-      <c r="E111" s="39">
-        <v>320</v>
+        <v>146</v>
+      </c>
+      <c r="C111" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D111" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="E111" s="42">
+        <v>95</v>
       </c>
       <c r="F111" s="43"/>
-      <c r="G111" s="27"/>
+      <c r="G111" s="39"/>
       <c r="H111" s="22">
         <f>G111*E111</f>
         <v>0</v>
       </c>
+      <c r="I111" s="22"/>
     </row>
     <row r="112" ht="21" customHeight="1">
-      <c r="A112" s="23">
-        <v>13</v>
+      <c r="A112" s="38">
+        <v>19</v>
       </c>
       <c r="B112" t="s" s="24">
-        <v>158</v>
-      </c>
-      <c r="C112" t="s" s="24">
-        <v>159</v>
-      </c>
-      <c r="D112" t="s" s="24">
-        <v>160</v>
-      </c>
-      <c r="E112" s="39">
-        <v>325</v>
+        <v>147</v>
+      </c>
+      <c r="C112" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D112" s="25"/>
+      <c r="E112" s="42">
+        <v>45</v>
       </c>
       <c r="F112" s="43"/>
-      <c r="G112" s="27"/>
+      <c r="G112" s="39"/>
       <c r="H112" s="22">
         <f>G112*E112</f>
         <v>0</v>
       </c>
+      <c r="I112" s="22"/>
     </row>
     <row r="113" ht="18.75" customHeight="1">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="46"/>
+      <c r="A113" s="38">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s" s="24">
+        <v>148</v>
+      </c>
+      <c r="C113" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D113" s="25"/>
+      <c r="E113" s="42">
+        <v>68</v>
+      </c>
+      <c r="F113" s="43"/>
+      <c r="G113" s="39"/>
       <c r="H113" s="22">
-        <f>SUM(H7:H112)</f>
-        <v>0</v>
-      </c>
+        <f>G113*E113</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="22"/>
     </row>
     <row r="114" ht="18.75" customHeight="1">
-      <c r="A114" t="s" s="47">
+      <c r="A114" s="38">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s" s="24">
+        <v>149</v>
+      </c>
+      <c r="C114" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D114" s="25"/>
+      <c r="E114" s="42">
+        <v>83</v>
+      </c>
+      <c r="F114" s="43"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="22">
+        <f>G114*E114</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="A115" s="38">
+        <v>22</v>
+      </c>
+      <c r="B115" t="s" s="24">
+        <v>150</v>
+      </c>
+      <c r="C115" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D115" t="s" s="25">
+        <v>92</v>
+      </c>
+      <c r="E115" s="26">
+        <v>185</v>
+      </c>
+      <c r="F115" s="43"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="22">
+        <f>G115*E115</f>
+        <v>0</v>
+      </c>
+      <c r="I115" s="22"/>
+    </row>
+    <row r="116" ht="18.75" customHeight="1">
+      <c r="A116" s="38">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s" s="24">
+        <v>151</v>
+      </c>
+      <c r="C116" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s" s="25">
+        <v>92</v>
+      </c>
+      <c r="E116" s="26">
+        <v>195</v>
+      </c>
+      <c r="F116" s="43"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="22">
+        <f>G116*E116</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="A117" s="38">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s" s="24">
+        <v>152</v>
+      </c>
+      <c r="C117" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D117" t="s" s="25">
+        <v>153</v>
+      </c>
+      <c r="E117" s="26">
+        <v>170</v>
+      </c>
+      <c r="F117" s="26"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="22">
+        <f>G117*E117</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" ht="18.75" customHeight="1">
+      <c r="A118" s="38">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D118" t="s" s="25">
+        <v>154</v>
+      </c>
+      <c r="E118" s="26">
+        <v>200</v>
+      </c>
+      <c r="F118" s="26"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="22">
+        <f>G118*E118</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="22"/>
+    </row>
+    <row r="119" ht="18.75" customHeight="1">
+      <c r="A119" s="38">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="C119" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D119" t="s" s="25">
+        <v>155</v>
+      </c>
+      <c r="E119" s="26">
+        <v>235</v>
+      </c>
+      <c r="F119" s="26"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="22">
+        <f>G119*E119</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="22"/>
+    </row>
+    <row r="120" ht="18.75" customHeight="1">
+      <c r="A120" s="38">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="C120" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D120" t="s" s="25">
+        <v>156</v>
+      </c>
+      <c r="E120" s="26">
+        <v>275</v>
+      </c>
+      <c r="F120" s="26"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="22">
+        <f>G120*E120</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="22"/>
+    </row>
+    <row r="121" ht="18.75" customHeight="1">
+      <c r="A121" s="38">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s" s="24">
+        <v>157</v>
+      </c>
+      <c r="C121" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D121" t="s" s="25">
+        <v>158</v>
+      </c>
+      <c r="E121" s="26">
+        <v>300</v>
+      </c>
+      <c r="F121" s="26"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="22">
+        <f>G121*E121</f>
+        <v>0</v>
+      </c>
+      <c r="I121" s="22"/>
+    </row>
+    <row r="122" ht="18.75" customHeight="1">
+      <c r="A122" s="38">
+        <v>29</v>
+      </c>
+      <c r="B122" t="s" s="24">
+        <v>159</v>
+      </c>
+      <c r="C122" t="s" s="24">
+        <v>101</v>
+      </c>
+      <c r="D122" t="s" s="25">
+        <v>155</v>
+      </c>
+      <c r="E122" s="26">
+        <v>325</v>
+      </c>
+      <c r="F122" s="26"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="22">
+        <f>G122*E122</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="22"/>
+    </row>
+    <row r="123" ht="18.75" customHeight="1">
+      <c r="A123" s="38">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s" s="24">
+        <v>160</v>
+      </c>
+      <c r="C123" t="s" s="24">
+        <v>101</v>
+      </c>
+      <c r="D123" t="s" s="25">
         <v>161</v>
       </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="50"/>
-    </row>
-    <row r="115" ht="18.75" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="52"/>
+      <c r="E123" s="26">
+        <v>460</v>
+      </c>
+      <c r="F123" s="26"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="22">
+        <f>G123*E123</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="22"/>
+    </row>
+    <row r="124" ht="18.75" customHeight="1">
+      <c r="A124" s="38">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s" s="24">
+        <v>162</v>
+      </c>
+      <c r="C124" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D124" s="40"/>
+      <c r="E124" s="26">
+        <v>40</v>
+      </c>
+      <c r="F124" s="26"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="22">
+        <f>G124*E124</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="22"/>
+    </row>
+    <row r="125" ht="18.75" customHeight="1">
+      <c r="A125" s="38">
+        <v>32</v>
+      </c>
+      <c r="B125" t="s" s="24">
+        <v>163</v>
+      </c>
+      <c r="C125" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D125" s="40"/>
+      <c r="E125" s="26">
+        <v>13</v>
+      </c>
+      <c r="F125" s="26"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="22">
+        <f>G125*E125</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" ht="18.75" customHeight="1">
+      <c r="A126" s="38">
+        <v>33</v>
+      </c>
+      <c r="B126" t="s" s="24">
+        <v>164</v>
+      </c>
+      <c r="C126" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D126" s="40"/>
+      <c r="E126" s="26">
+        <v>23</v>
+      </c>
+      <c r="F126" s="26"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="22">
+        <f>G126*E126</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" ht="21" customHeight="1">
+      <c r="A127" s="38">
+        <v>34</v>
+      </c>
+      <c r="B127" t="s" s="24">
+        <v>165</v>
+      </c>
+      <c r="C127" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D127" s="40"/>
+      <c r="E127" s="26">
+        <v>29</v>
+      </c>
+      <c r="F127" s="26"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="22">
+        <f>G127*E127</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="22"/>
+    </row>
+    <row r="128" ht="21" customHeight="1">
+      <c r="A128" s="38">
+        <v>35</v>
+      </c>
+      <c r="B128" t="s" s="24">
+        <v>166</v>
+      </c>
+      <c r="C128" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D128" t="s" s="25">
+        <v>167</v>
+      </c>
+      <c r="E128" s="26">
+        <v>85</v>
+      </c>
+      <c r="F128" s="26"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="22">
+        <f>G128*E128</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" ht="21" customHeight="1">
+      <c r="A129" s="38">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s" s="24">
+        <v>168</v>
+      </c>
+      <c r="C129" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D129" s="25"/>
+      <c r="E129" s="26">
+        <v>90</v>
+      </c>
+      <c r="F129" s="26"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="22">
+        <f>G129*E129</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" ht="21" customHeight="1">
+      <c r="A130" s="38">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s" s="24">
+        <v>169</v>
+      </c>
+      <c r="C130" t="s" s="25">
+        <v>101</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="26">
+        <v>20</v>
+      </c>
+      <c r="F130" s="26"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="22">
+        <f>G130*E130</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="22"/>
+    </row>
+    <row r="131" ht="21" customHeight="1">
+      <c r="A131" s="38">
+        <v>38</v>
+      </c>
+      <c r="B131" t="s" s="24">
+        <v>170</v>
+      </c>
+      <c r="C131" t="s" s="25">
+        <v>47</v>
+      </c>
+      <c r="D131" s="25"/>
+      <c r="E131" s="26">
+        <v>125</v>
+      </c>
+      <c r="F131" s="26"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="22">
+        <f>G131*E131</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="22"/>
+    </row>
+    <row r="132" ht="21" customHeight="1">
+      <c r="A132" s="38">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s" s="24">
+        <v>171</v>
+      </c>
+      <c r="C132" t="s" s="25">
+        <v>47</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="E132" s="26">
+        <v>115</v>
+      </c>
+      <c r="F132" s="26"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="22">
+        <f>G132*E132</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="A133" t="s" s="31">
+        <v>172</v>
+      </c>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" ht="21" customHeight="1">
+      <c r="A134" s="23">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s" s="24">
+        <v>173</v>
+      </c>
+      <c r="C134" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D134" t="s" s="45">
+        <v>175</v>
+      </c>
+      <c r="E134" s="26">
+        <v>71</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="22">
+        <f>G134*E134</f>
+        <v>0</v>
+      </c>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="A135" s="23">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s" s="24">
+        <v>176</v>
+      </c>
+      <c r="C135" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D135" t="s" s="45">
+        <v>177</v>
+      </c>
+      <c r="E135" s="26">
+        <v>57</v>
+      </c>
+      <c r="F135" s="27"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="22">
+        <f>G135*E135</f>
+        <v>0</v>
+      </c>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="A136" s="23">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s" s="24">
+        <v>178</v>
+      </c>
+      <c r="C136" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D136" t="s" s="45">
+        <v>179</v>
+      </c>
+      <c r="E136" s="26">
+        <v>57</v>
+      </c>
+      <c r="F136" s="27"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="22">
+        <f>G136*E136</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="A137" s="23">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s" s="24">
+        <v>180</v>
+      </c>
+      <c r="C137" s="24"/>
+      <c r="D137" t="s" s="45">
+        <v>175</v>
+      </c>
+      <c r="E137" s="26">
+        <v>135</v>
+      </c>
+      <c r="F137" s="27"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="22">
+        <f>G137*E137</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="22"/>
+    </row>
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="A138" s="23">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s" s="24">
+        <v>181</v>
+      </c>
+      <c r="C138" s="24"/>
+      <c r="D138" t="s" s="45">
+        <v>177</v>
+      </c>
+      <c r="E138" s="26">
+        <v>125</v>
+      </c>
+      <c r="F138" s="27"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="22">
+        <f>G138*E138</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="A139" s="23">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s" s="24">
+        <v>182</v>
+      </c>
+      <c r="C139" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D139" t="s" s="45">
+        <v>183</v>
+      </c>
+      <c r="E139" s="26">
+        <v>345</v>
+      </c>
+      <c r="F139" s="27"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="22">
+        <f>G139*E139</f>
+        <v>0</v>
+      </c>
+      <c r="I139" s="22"/>
+    </row>
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="A140" s="23">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s" s="24">
+        <v>184</v>
+      </c>
+      <c r="C140" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D140" t="s" s="45">
+        <v>185</v>
+      </c>
+      <c r="E140" s="26">
+        <v>402</v>
+      </c>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="22">
+        <f>G140*E140</f>
+        <v>0</v>
+      </c>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="A141" s="23">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s" s="24">
+        <v>186</v>
+      </c>
+      <c r="C141" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D141" t="s" s="45">
+        <v>187</v>
+      </c>
+      <c r="E141" s="26">
+        <v>345</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="22">
+        <f>G141*E141</f>
+        <v>0</v>
+      </c>
+      <c r="I141" s="22"/>
+    </row>
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="A142" s="23">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s" s="24">
+        <v>188</v>
+      </c>
+      <c r="C142" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D142" t="s" s="45">
+        <v>187</v>
+      </c>
+      <c r="E142" s="26">
+        <v>320</v>
+      </c>
+      <c r="F142" s="27"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="22">
+        <f>G142*E142</f>
+        <v>0</v>
+      </c>
+      <c r="I142" s="22"/>
+    </row>
+    <row r="143" ht="18.75" customHeight="1">
+      <c r="A143" s="23">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s" s="24">
+        <v>189</v>
+      </c>
+      <c r="C143" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D143" t="s" s="45">
+        <v>183</v>
+      </c>
+      <c r="E143" s="26">
+        <v>175</v>
+      </c>
+      <c r="F143" s="27"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="22">
+        <f>G143*E143</f>
+        <v>0</v>
+      </c>
+      <c r="I143" s="22"/>
+    </row>
+    <row r="144" ht="18.75" customHeight="1">
+      <c r="A144" s="23">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s" s="24">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="D144" t="s" s="45">
+        <v>185</v>
+      </c>
+      <c r="E144" s="42">
+        <v>205</v>
+      </c>
+      <c r="F144" s="46"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="22">
+        <f>G144*E144</f>
+        <v>0</v>
+      </c>
+      <c r="I144" s="22"/>
+    </row>
+    <row r="145" ht="21" customHeight="1">
+      <c r="A145" s="23">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s" s="24">
+        <v>191</v>
+      </c>
+      <c r="C145" t="s" s="24">
+        <v>192</v>
+      </c>
+      <c r="D145" t="s" s="24">
+        <v>193</v>
+      </c>
+      <c r="E145" s="42">
+        <v>325</v>
+      </c>
+      <c r="F145" s="46"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="22">
+        <f>G145*E145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="22"/>
+    </row>
+    <row r="146" ht="21" customHeight="1">
+      <c r="A146" s="23">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s" s="24">
+        <v>194</v>
+      </c>
+      <c r="C146" t="s" s="24">
+        <v>195</v>
+      </c>
+      <c r="D146" t="s" s="24">
+        <v>196</v>
+      </c>
+      <c r="E146" s="42">
+        <v>335</v>
+      </c>
+      <c r="F146" s="46"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="22">
+        <f>G146*E146</f>
+        <v>0</v>
+      </c>
+      <c r="I146" s="22"/>
+    </row>
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="22">
+        <f>SUM(H7:H146)</f>
+        <v>0</v>
+      </c>
+      <c r="I147" s="22"/>
+    </row>
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="A148" t="s" s="50">
+        <v>197</v>
+      </c>
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="53"/>
+    </row>
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A19:G19"/>
+  <mergeCells count="13">
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A93:G93"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" location="" tooltip="" display=""/>
@@ -5006,612 +5994,612 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="53" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="53" customWidth="1"/>
-    <col min="12" max="256" width="6.625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="56" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="56" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="56" customWidth="1"/>
+    <col min="12" max="256" width="6.625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" t="s" s="55">
-        <v>162</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="A2" s="57"/>
+      <c r="B2" t="s" s="58">
+        <v>198</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" t="s" s="58">
-        <v>163</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="A3" s="57"/>
+      <c r="B3" t="s" s="61">
+        <v>199</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="61"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="61"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="61"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="61"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="61"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="61"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="64"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="61"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="61"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="61"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="61"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="61"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="61"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="61"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="61"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="61"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="64"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="61"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="61"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="61"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="61"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" ht="24" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" t="s" s="68">
-        <v>164</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="61"/>
+      <c r="A25" s="57"/>
+      <c r="B25" t="s" s="71">
+        <v>200</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" t="s" s="71">
-        <v>165</v>
-      </c>
-      <c r="E26" t="s" s="72">
-        <v>166</v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" t="s" s="74">
+        <v>201</v>
+      </c>
+      <c r="E26" t="s" s="75">
+        <v>202</v>
+      </c>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" t="s" s="71">
-        <v>167</v>
-      </c>
-      <c r="E27" t="s" s="72">
-        <v>168</v>
-      </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" t="s" s="74">
+        <v>203</v>
+      </c>
+      <c r="E27" t="s" s="75">
+        <v>204</v>
+      </c>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" t="s" s="71">
-        <v>169</v>
-      </c>
-      <c r="E28" t="s" s="72">
-        <v>170</v>
-      </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" t="s" s="74">
+        <v>205</v>
+      </c>
+      <c r="E28" t="s" s="75">
+        <v>206</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" t="s" s="71">
-        <v>171</v>
-      </c>
-      <c r="E29" t="s" s="72">
-        <v>172</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" t="s" s="74">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s" s="75">
+        <v>208</v>
+      </c>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" t="s" s="71">
-        <v>173</v>
-      </c>
-      <c r="E30" t="s" s="72">
-        <v>174</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" t="s" s="74">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s" s="75">
+        <v>210</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" t="s" s="71">
-        <v>175</v>
-      </c>
-      <c r="E31" t="s" s="72">
-        <v>176</v>
-      </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" t="s" s="74">
+        <v>211</v>
+      </c>
+      <c r="E31" t="s" s="75">
+        <v>212</v>
+      </c>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" t="s" s="71">
-        <v>177</v>
-      </c>
-      <c r="E32" t="s" s="72">
-        <v>178</v>
-      </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" t="s" s="74">
+        <v>213</v>
+      </c>
+      <c r="E32" t="s" s="75">
+        <v>214</v>
+      </c>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B3:J23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B3:J23"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
